--- a/trunk/Brewery Coordinates and Prim Counts.xlsx
+++ b/trunk/Brewery Coordinates and Prim Counts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Building</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Static?</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Wardrobe</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>but you'll fall ??</t>
+  </si>
+  <si>
+    <t>Now part of brewery</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Potential freed =</t>
   </si>
 </sst>
 </file>
@@ -467,18 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -497,8 +505,15 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1">
+        <f>SUM(J:J)-COUNT(J:J)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,8 +538,11 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -550,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -567,7 +585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -586,11 +604,17 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="H6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -635,11 +662,17 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -664,8 +697,11 @@
       <c r="H8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -687,8 +723,11 @@
       <c r="H9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -711,7 +750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -728,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -742,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -760,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -771,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -794,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -808,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -819,10 +858,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -839,9 +878,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -853,9 +892,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -867,12 +906,12 @@
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -881,15 +920,18 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -899,6 +941,9 @@
       </c>
       <c r="H22" t="s">
         <v>2</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Brewery Coordinates and Prim Counts.xlsx
+++ b/trunk/Brewery Coordinates and Prim Counts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Building</t>
   </si>
@@ -36,45 +36,21 @@
     <t>Brewery</t>
   </si>
   <si>
-    <t>Tun Contents</t>
-  </si>
-  <si>
-    <t>Fermenters</t>
-  </si>
-  <si>
-    <t>Viewing Stand</t>
-  </si>
-  <si>
-    <t>Bright Tanks</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
     <t>Bar Stools</t>
   </si>
   <si>
-    <t>Door</t>
-  </si>
-  <si>
     <t>Web Board</t>
   </si>
   <si>
     <t>Ad Board</t>
   </si>
   <si>
-    <t>Tip Keg</t>
-  </si>
-  <si>
-    <t>Pager</t>
-  </si>
-  <si>
     <t>Radio</t>
   </si>
   <si>
-    <t>House</t>
-  </si>
-  <si>
     <t>What are you drinking</t>
   </si>
   <si>
@@ -93,15 +69,6 @@
     <t>(some textures fail)</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>(too hard to get too)</t>
-  </si>
-  <si>
-    <t>permissions!</t>
-  </si>
-  <si>
     <t>textures</t>
   </si>
   <si>
@@ -111,37 +78,64 @@
     <t>Static?</t>
   </si>
   <si>
-    <t>Wardrobe</t>
-  </si>
-  <si>
-    <t>Barrels</t>
-  </si>
-  <si>
-    <t>Decorations</t>
-  </si>
-  <si>
     <t>Posters</t>
   </si>
   <si>
     <t>replace these with sculpties</t>
   </si>
   <si>
-    <t>replace with sculptie</t>
-  </si>
-  <si>
     <t>but you sit on them!</t>
   </si>
   <si>
     <t>but you'll fall ??</t>
   </si>
   <si>
-    <t>Now part of brewery</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Potential freed =</t>
+  </si>
+  <si>
+    <t>Hot Liquor</t>
+  </si>
+  <si>
+    <t>MT Level</t>
+  </si>
+  <si>
+    <t>Kettle Level</t>
+  </si>
+  <si>
+    <t>Working Platform</t>
+  </si>
+  <si>
+    <t>Roller Door</t>
+  </si>
+  <si>
+    <t>Beer Keg</t>
+  </si>
+  <si>
+    <t>Online Indicator</t>
+  </si>
+  <si>
+    <t>Barrel Table &amp; Chairs</t>
+  </si>
+  <si>
+    <t>Second Runnings Bottles</t>
+  </si>
+  <si>
+    <t>Neon Sign</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>What's Brewin'</t>
+  </si>
+  <si>
+    <t>Misc Decorations</t>
+  </si>
+  <si>
+    <t>Greeter</t>
+  </si>
+  <si>
+    <t>My Sexy Skybox</t>
   </si>
 </sst>
 </file>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,17 +494,17 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K1">
         <f>SUM(J:J)-COUNT(J:J)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -518,22 +512,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>128.09200000000001</v>
+        <v>128.119</v>
       </c>
       <c r="C2">
-        <v>39.939</v>
+        <v>47.685000000000002</v>
       </c>
       <c r="D2">
-        <v>152.86500000000001</v>
+        <v>145.19800000000001</v>
       </c>
       <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -550,131 +544,110 @@
         <v>131.62899999999999</v>
       </c>
       <c r="C3">
-        <v>45.405000000000001</v>
+        <v>45.405999999999999</v>
       </c>
       <c r="D3">
         <v>147.71700000000001</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>131.62899999999999</v>
+      </c>
+      <c r="C4">
+        <v>42.905999999999999</v>
+      </c>
+      <c r="D4">
+        <v>148.34899999999999</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>134.048</v>
+        <v>131.62899999999999</v>
       </c>
       <c r="C5">
-        <v>53.308</v>
+        <v>45.405999999999999</v>
       </c>
       <c r="D5">
-        <v>148.76499999999999</v>
+        <v>147.53800000000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>133.79400000000001</v>
+        <v>131.62899999999999</v>
       </c>
       <c r="C6">
-        <v>42.542999999999999</v>
+        <v>47.905999999999999</v>
       </c>
       <c r="D6">
-        <v>148.327</v>
+        <v>147.53800000000001</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>130.52600000000001</v>
+        <v>133.79400000000001</v>
       </c>
       <c r="C7">
-        <v>62.238999999999997</v>
+        <v>42.542999999999999</v>
       </c>
       <c r="D7">
-        <v>150.19800000000001</v>
+        <v>148.327</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>124.29</v>
@@ -689,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -703,33 +676,33 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>128.34</v>
+        <v>130.346</v>
       </c>
       <c r="C9">
-        <v>57.063000000000002</v>
+        <v>57.081000000000003</v>
       </c>
       <c r="D9">
-        <v>148.19800000000001</v>
+        <v>148.154</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>128.13300000000001</v>
@@ -738,7 +711,7 @@
         <v>39.979999999999997</v>
       </c>
       <c r="D10">
-        <v>149.886</v>
+        <v>153.68600000000001</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -747,29 +720,47 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>124.905</v>
+      </c>
+      <c r="C11">
+        <v>62.978000000000002</v>
+      </c>
+      <c r="D11">
+        <v>151.083</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>121.041</v>
+      </c>
+      <c r="C12">
+        <v>45.948999999999998</v>
+      </c>
+      <c r="D12">
+        <v>150.48599999999999</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -778,172 +769,311 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>121.041</v>
+      </c>
+      <c r="C13">
+        <v>59.027000000000001</v>
+      </c>
+      <c r="D13">
+        <v>150.87899999999999</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>125.777</v>
+      </c>
+      <c r="C14">
+        <v>50.372999999999998</v>
+      </c>
+      <c r="D14">
+        <v>148.19800000000001</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>124.26300000000001</v>
+      </c>
+      <c r="C15">
+        <v>49.506</v>
+      </c>
+      <c r="D15">
+        <v>148.30500000000001</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>126.128</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>149.011</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>129.43899999999999</v>
+      </c>
+      <c r="C17">
+        <v>52.94</v>
+      </c>
+      <c r="D17">
+        <v>3163.1979999999999</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>120.992</v>
+      </c>
+      <c r="C18">
+        <v>52.573999999999998</v>
+      </c>
+      <c r="D18">
+        <v>151.077</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>122.64100000000001</v>
+      </c>
+      <c r="C19">
+        <v>45.253999999999998</v>
+      </c>
+      <c r="D19">
+        <v>148.74600000000001</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>124.164</v>
+      </c>
+      <c r="C20">
+        <v>54.384</v>
+      </c>
+      <c r="D20">
+        <v>149.44800000000001</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22">
+        <v>128.09200000000001</v>
+      </c>
+      <c r="C22">
+        <v>39.67</v>
+      </c>
+      <c r="D22">
+        <v>152.405</v>
+      </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>133.667</v>
+      </c>
+      <c r="C23">
+        <v>39.631</v>
+      </c>
+      <c r="D23">
+        <v>149.53399999999999</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>122.456</v>
+      </c>
+      <c r="C24">
+        <v>39.420999999999999</v>
+      </c>
+      <c r="D24">
+        <v>149.24700000000001</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>128.12200000000001</v>
+      </c>
+      <c r="C26">
+        <v>40.293999999999997</v>
+      </c>
+      <c r="D26">
+        <v>153.143</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
